--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1465652.783549451</v>
+        <v>1544329.5586471</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18152047.48133116</v>
+        <v>16659530.99074004</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2101364.28746743</v>
+        <v>606553.2040797154</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6005350.586663609</v>
+        <v>6474869.02108362</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>61.37033924555255</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>33.94839096113886</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -877,10 +879,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>236.3534627278524</v>
       </c>
       <c r="X4" t="n">
-        <v>41.28837002808726</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -896,25 +898,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>241.3155710353917</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>30.34967489968355</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1066,13 +1068,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>24.34318456170478</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>131.996999652747</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>326.4433762733728</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>420.3611198110643</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1145,13 +1147,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1291,7 +1293,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>238.2650401936903</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>17.55115381536141</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1385,10 +1387,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>243.6121321372732</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1436,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1546,7 +1548,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>83.4954556830794</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,7 +1584,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>67.4289457920829</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1594,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>379.6175607704808</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1619,7 +1621,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1658,10 +1660,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
@@ -1670,10 +1672,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>192.7489785050257</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1777,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>24.34318456170478</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>46.2253027104011</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1856,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -1898,7 +1900,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561544</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2014,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2065,7 +2067,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
-        <v>198.6534743970087</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
         <v>225.1454739790328</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2257,7 +2259,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>254.0931201069094</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2482,7 +2484,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>111.6992875207545</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2539,7 +2541,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2564,7 +2566,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
@@ -2716,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>41.77118486549507</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>46.22530271040065</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2956,13 +2958,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904392</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3193,10 +3195,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>43.70143389869524</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
         <v>163.9353622244306</v>
@@ -3205,7 +3207,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>67.42894579208244</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3436,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>35.20092700999093</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
@@ -3727,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>27.97358346682158</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3800,13 +3802,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>160.8926271570199</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>407.6810791510306</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3913,7 +3915,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -3952,16 +3954,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>172.6623007436913</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>263.6748070120138</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>100.7791303724942</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>165.9338844299918</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>99.68042330889656</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4198,7 +4200,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>131.5141848153391</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1789.512437976118</v>
+        <v>1298.040072665448</v>
       </c>
       <c r="C2" t="n">
-        <v>1351.369965159541</v>
+        <v>859.8975998488716</v>
       </c>
       <c r="D2" t="n">
-        <v>915.4601803339856</v>
+        <v>797.9073581866973</v>
       </c>
       <c r="E2" t="n">
-        <v>481.6854354922808</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F2" t="n">
-        <v>53.81800590148855</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
         <v>53.81800590148855</v>
@@ -4355,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U2" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V2" t="n">
-        <v>2670.060826431428</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W2" t="n">
-        <v>2669.245775882865</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X2" t="n">
-        <v>2250.103312462176</v>
+        <v>1324.544958769894</v>
       </c>
       <c r="Y2" t="n">
-        <v>2215.812008461025</v>
+        <v>1320.299239109952</v>
       </c>
     </row>
     <row r="3">
@@ -4419,13 +4421,13 @@
         <v>53.40121652862856</v>
       </c>
       <c r="N3" t="n">
-        <v>397.8892067392439</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O3" t="n">
-        <v>397.8892067392439</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="P3" t="n">
-        <v>1058.729261281022</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="Q3" t="n">
         <v>1599.468199913098</v>
@@ -4510,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2510.819457729424</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
-        <v>1986.507010560985</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1699.551502431415</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
-        <v>1427.525098017707</v>
+        <v>1439.392809694512</v>
       </c>
       <c r="X4" t="n">
-        <v>1385.819673746912</v>
+        <v>1194.001055027924</v>
       </c>
       <c r="Y4" t="n">
-        <v>1158.40000306102</v>
+        <v>966.5813843420327</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1414.726116614672</v>
+        <v>1195.45039114996</v>
       </c>
       <c r="C5" t="n">
-        <v>1380.624047838499</v>
+        <v>757.3079183333834</v>
       </c>
       <c r="D5" t="n">
-        <v>1348.754667053348</v>
+        <v>725.438537548232</v>
       </c>
       <c r="E5" t="n">
-        <v>914.9799222116428</v>
+        <v>481.6854354922808</v>
       </c>
       <c r="F5" t="n">
-        <v>487.1124926208506</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="G5" t="n">
-        <v>85.71466124411444</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>55.05842397170682</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L5" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M5" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>674.5723545739454</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O5" t="n">
-        <v>1355.920351223817</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>2037.268347873689</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>2583.767133832284</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>2752.921198585341</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2669.269324769178</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>2669.269324769178</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>2669.269324769178</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="V5" t="n">
-        <v>2669.269324769178</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="W5" t="n">
-        <v>2264.413870180211</v>
+        <v>2045.1381447155</v>
       </c>
       <c r="X5" t="n">
-        <v>1845.271406759522</v>
+        <v>1625.99568129481</v>
       </c>
       <c r="Y5" t="n">
-        <v>1841.025687099579</v>
+        <v>1621.749961634868</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>561.2301689629996</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>454.7737077996419</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>359.6834189461952</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>265.5630042731489</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>182.1791658893105</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>96.79407615549434</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J6" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K6" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L6" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M6" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N6" t="n">
-        <v>379.0384720742287</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O6" t="n">
-        <v>379.0384720742287</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P6" t="n">
-        <v>1060.3864687241</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1601.125407356176</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1718.298185450516</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1654.842747898899</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1524.6641042295</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1348.327557229469</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1149.210039291468</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>963.8872850246621</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>809.019849263542</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.5340700427628</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>764.552261389319</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C7" t="n">
-        <v>591.990549872544</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D7" t="n">
-        <v>426.1125570740667</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E7" t="n">
-        <v>256.3545533248039</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F7" t="n">
-        <v>79.64749928656013</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>55.05842397170682</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>55.05842397170682</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>141.6381091363967</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>416.3965637075322</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>834.6064454754933</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>1294.090312656406</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1736.349115814051</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>2156.018365039832</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>2503.525259010174</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>2671.718033874507</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>2671.718033874507</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2512.476665172503</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2266.597218750958</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U7" t="n">
-        <v>1988.164218004064</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V7" t="n">
-        <v>1701.208709874494</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W7" t="n">
-        <v>1429.182305460786</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X7" t="n">
-        <v>1183.790550794198</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y7" t="n">
-        <v>956.3708801083062</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>874.2703592634692</v>
+        <v>1660.657022731622</v>
       </c>
       <c r="C8" t="n">
-        <v>544.5295751489513</v>
+        <v>1222.514549915045</v>
       </c>
       <c r="D8" t="n">
-        <v>108.6197903233958</v>
+        <v>797.9073581866973</v>
       </c>
       <c r="E8" t="n">
-        <v>78.88544952209503</v>
+        <v>768.1730173853965</v>
       </c>
       <c r="F8" t="n">
-        <v>55.05842397170682</v>
+        <v>744.3459918350084</v>
       </c>
       <c r="G8" t="n">
-        <v>55.05842397170682</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>55.05842397170682</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L8" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M8" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N8" t="n">
-        <v>674.5723545739454</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>1355.920351223817</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>2037.268347873689</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2583.767133832284</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2752.921198585341</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2752.921198585341</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2532.853971458379</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2532.853971458379</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2532.853971458379</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W8" t="n">
-        <v>2127.998516869413</v>
+        <v>1702.263968216353</v>
       </c>
       <c r="X8" t="n">
-        <v>1708.856053448724</v>
+        <v>1687.161908836068</v>
       </c>
       <c r="Y8" t="n">
-        <v>1300.569929748377</v>
+        <v>1682.916189176125</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>561.2301689629996</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>454.7737077996419</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>359.6834189461952</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>265.5630042731489</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>182.1791658893105</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>96.79407615549434</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J9" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K9" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="L9" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="M9" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="N9" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="O9" t="n">
-        <v>736.4064206215786</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="P9" t="n">
-        <v>1060.3864687241</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="Q9" t="n">
-        <v>1601.125407356176</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1718.298185450516</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1654.842747898899</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1524.6641042295</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1348.327557229469</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1149.210039291468</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>963.8872850246621</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>809.019849263542</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>682.5340700427628</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>961.5548730668132</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>961.5548730668132</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>795.6768802683359</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>625.9188765190731</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>449.2118224808293</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>283.620547506657</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>143.7183731970315</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>55.05842397170682</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>141.6381091363967</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>416.3965637075322</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>834.6064454754933</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1294.090312656406</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1736.349115814051</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>2156.018365039832</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2503.525259010174</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2671.718033874507</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2671.718033874507</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2671.718033874507</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="T10" t="n">
-        <v>2425.838587452962</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>2185.166829681557</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1898.211321551988</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1626.18491713828</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1380.793162471692</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1153.3734917858</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1566.306330509511</v>
+        <v>2104.363000055493</v>
       </c>
       <c r="C11" t="n">
-        <v>1566.306330509511</v>
+        <v>1666.220527238916</v>
       </c>
       <c r="D11" t="n">
-        <v>1130.396545683956</v>
+        <v>1230.31074241336</v>
       </c>
       <c r="E11" t="n">
-        <v>1130.396545683956</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>702.5291160931633</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>301.1312847164272</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>55.05842397170682</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I11" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J11" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K11" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L11" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M11" t="n">
-        <v>55.05842397170682</v>
+        <v>1038.631590390883</v>
       </c>
       <c r="N11" t="n">
-        <v>674.5723545739454</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O11" t="n">
-        <v>1355.920351223817</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P11" t="n">
-        <v>2037.268347873689</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q11" t="n">
-        <v>2583.767133832284</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R11" t="n">
-        <v>2752.921198585341</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S11" t="n">
-        <v>2752.921198585341</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T11" t="n">
-        <v>2752.921198585341</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U11" t="n">
-        <v>2752.921198585341</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V11" t="n">
-        <v>2390.304248519167</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W11" t="n">
-        <v>1985.448793930201</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X11" t="n">
-        <v>1566.306330509511</v>
+        <v>2938.948694240747</v>
       </c>
       <c r="Y11" t="n">
-        <v>1566.306330509511</v>
+        <v>2530.6625705404</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>561.2301689629996</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C12" t="n">
-        <v>454.7737077996419</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D12" t="n">
-        <v>359.6834189461952</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>265.5630042731489</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>182.1791658893105</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>96.79407615549434</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J12" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K12" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L12" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M12" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="N12" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="O12" t="n">
-        <v>379.0384720742287</v>
+        <v>1107.571709137155</v>
       </c>
       <c r="P12" t="n">
-        <v>1060.3864687241</v>
+        <v>1107.571709137155</v>
       </c>
       <c r="Q12" t="n">
-        <v>1601.125407356176</v>
+        <v>1648.310647769231</v>
       </c>
       <c r="R12" t="n">
-        <v>1718.298185450516</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S12" t="n">
-        <v>1654.842747898899</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T12" t="n">
-        <v>1524.6641042295</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1348.327557229469</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V12" t="n">
-        <v>1149.210039291468</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>963.8872850246621</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>809.019849263542</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y12" t="n">
-        <v>682.5340700427628</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1134.116584583588</v>
+        <v>1168.507154829733</v>
       </c>
       <c r="C13" t="n">
-        <v>961.5548730668132</v>
+        <v>995.945443312958</v>
       </c>
       <c r="D13" t="n">
-        <v>795.6768802683359</v>
+        <v>830.0674505144807</v>
       </c>
       <c r="E13" t="n">
-        <v>625.9188765190731</v>
+        <v>660.3094467652179</v>
       </c>
       <c r="F13" t="n">
-        <v>449.2118224808293</v>
+        <v>483.6023927269741</v>
       </c>
       <c r="G13" t="n">
-        <v>283.620547506657</v>
+        <v>318.0111177528018</v>
       </c>
       <c r="H13" t="n">
-        <v>143.7183731970315</v>
+        <v>178.1089434431763</v>
       </c>
       <c r="I13" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J13" t="n">
-        <v>141.6381091363967</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>416.3965637075322</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>834.6064454754933</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1294.090312656406</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1736.349115814051</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2156.018365039832</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2503.525259010174</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2671.718033874507</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2671.718033874507</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S13" t="n">
-        <v>2671.718033874507</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="T13" t="n">
-        <v>2425.838587452962</v>
+        <v>2443.132441505481</v>
       </c>
       <c r="U13" t="n">
-        <v>2357.728541198333</v>
+        <v>2164.699440758586</v>
       </c>
       <c r="V13" t="n">
-        <v>2070.773033068763</v>
+        <v>1877.743932629016</v>
       </c>
       <c r="W13" t="n">
-        <v>1798.746628655055</v>
+        <v>1605.717528215308</v>
       </c>
       <c r="X13" t="n">
-        <v>1553.354873988467</v>
+        <v>1360.32577354872</v>
       </c>
       <c r="Y13" t="n">
-        <v>1325.935203302575</v>
+        <v>1360.32577354872</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1790.752856046336</v>
+        <v>2230.862362770219</v>
       </c>
       <c r="C14" t="n">
-        <v>1352.610383229759</v>
+        <v>1792.719889953642</v>
       </c>
       <c r="D14" t="n">
-        <v>916.7005984042039</v>
+        <v>1356.810105128087</v>
       </c>
       <c r="E14" t="n">
-        <v>482.9258535624991</v>
+        <v>923.035360286382</v>
       </c>
       <c r="F14" t="n">
-        <v>55.05842397170682</v>
+        <v>495.1679306955898</v>
       </c>
       <c r="G14" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H14" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I14" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J14" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K14" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L14" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M14" t="n">
-        <v>55.05842397170682</v>
+        <v>1038.631590390883</v>
       </c>
       <c r="N14" t="n">
-        <v>674.5723545739454</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O14" t="n">
-        <v>1355.920351223817</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P14" t="n">
-        <v>2037.268347873689</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q14" t="n">
-        <v>2583.767133832284</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R14" t="n">
-        <v>2752.921198585341</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S14" t="n">
-        <v>2752.921198585341</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T14" t="n">
-        <v>2752.921198585341</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="U14" t="n">
-        <v>2752.921198585341</v>
+        <v>4209.215436132739</v>
       </c>
       <c r="V14" t="n">
-        <v>2390.304248519167</v>
+        <v>3846.598486066566</v>
       </c>
       <c r="W14" t="n">
-        <v>1985.448793930201</v>
+        <v>3441.743031477599</v>
       </c>
       <c r="X14" t="n">
-        <v>1790.752856046336</v>
+        <v>3022.60056805691</v>
       </c>
       <c r="Y14" t="n">
-        <v>1790.752856046336</v>
+        <v>2614.314444356563</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>561.2301689629996</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C15" t="n">
-        <v>454.7737077996419</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D15" t="n">
-        <v>359.6834189461952</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>265.5630042731489</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>182.1791658893105</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>96.79407615549434</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I15" t="n">
-        <v>55.05842397170682</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>55.05842397170682</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>55.05842397170682</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>55.05842397170682</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>55.05842397170682</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>736.4064206215786</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1177.55924681844</v>
+        <v>1458.193707263825</v>
       </c>
       <c r="P15" t="n">
-        <v>1177.55924681844</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="Q15" t="n">
-        <v>1718.298185450516</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1718.298185450516</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S15" t="n">
-        <v>1654.842747898899</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T15" t="n">
-        <v>1524.6641042295</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1348.327557229469</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V15" t="n">
-        <v>1149.210039291468</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>963.8872850246621</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>809.019849263542</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y15" t="n">
-        <v>682.5340700427628</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>764.552261389319</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C16" t="n">
-        <v>591.990549872544</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D16" t="n">
-        <v>426.1125570740667</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E16" t="n">
-        <v>256.3545533248039</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F16" t="n">
-        <v>79.64749928656013</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G16" t="n">
-        <v>55.05842397170682</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>55.05842397170682</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I16" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J16" t="n">
-        <v>141.6381091363967</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>416.3965637075322</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>834.6064454754933</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1294.090312656406</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1736.349115814051</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2156.018365039832</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2503.525259010174</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2671.718033874507</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2671.718033874507</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2512.476665172503</v>
+        <v>2642.319662967024</v>
       </c>
       <c r="T16" t="n">
-        <v>2266.597218750958</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="U16" t="n">
-        <v>1988.164218004064</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V16" t="n">
-        <v>1701.208709874494</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W16" t="n">
-        <v>1429.182305460786</v>
+        <v>1837.458304002202</v>
       </c>
       <c r="X16" t="n">
-        <v>1183.790550794198</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y16" t="n">
-        <v>956.3708801083062</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5546,19 +5548,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5604,13 +5606,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O18" t="n">
-        <v>1116.062450089081</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P18" t="n">
-        <v>1116.062450089081</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
         <v>1648.327823655249</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1015.727725908489</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C19" t="n">
-        <v>843.1660143917137</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D19" t="n">
-        <v>677.2880215932364</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E19" t="n">
-        <v>507.5300178439736</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F19" t="n">
-        <v>330.8229638057298</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>1434.966015313368</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>1207.546344627476</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5756,25 +5758,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>306.120802776629</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.16863798718</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722817</v>
@@ -5789,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N21" t="n">
-        <v>751.6989919312866</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O21" t="n">
-        <v>1765.500601749588</v>
+        <v>828.6046571760505</v>
       </c>
       <c r="P21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3486.780615022739</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>3314.218903505964</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>3148.340910707486</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>2978.582906958224</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>2801.87585291998</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>2636.284577945808</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J22" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M22" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N22" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O22" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P22" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q22" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>4932.38282354235</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>4686.503377120805</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U22" t="n">
-        <v>4408.070376373911</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V22" t="n">
-        <v>4151.410659094205</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>4151.410659094205</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>3906.018904427618</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>3678.599233741726</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5990,19 +5992,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>1177.320806523639</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>2334.36864173419</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N23" t="n">
-        <v>3460.099625170637</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O23" t="n">
-        <v>4440.279291740943</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P23" t="n">
         <v>5113.04201353898</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1035.728611060351</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>863.1668995435758</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>697.2889067450985</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1454.96690046523</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1227.547229779338</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C26" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>388.1086717343205</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>388.1086717343205</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>1463.16863798718</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P26" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W26" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="27">
@@ -6315,7 +6317,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="O27" t="n">
         <v>405.0384966383147</v>
@@ -6358,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>1057.634124109936</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>885.0724125931612</v>
       </c>
       <c r="D28" t="n">
         <v>842.8792965674086</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457406</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U28" t="n">
-        <v>2404.930957497405</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1722.264168181403</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1476.872413514815</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1249.452742828923</v>
       </c>
     </row>
     <row r="29">
@@ -6461,16 +6463,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L29" t="n">
-        <v>1431.851786213076</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6537,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J30" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P30" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q30" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6604,10 +6606,10 @@
         <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707796</v>
@@ -6698,13 +6700,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>306.120802776629</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="M32" t="n">
         <v>1463.16863798718</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>3762.041963884335</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R33" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S33" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V33" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X33" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y33" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3184.458419759167</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C34" t="n">
-        <v>3011.896708242392</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D34" t="n">
-        <v>2846.018715443915</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E34" t="n">
-        <v>2801.87585291998</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F34" t="n">
-        <v>2801.87585291998</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G34" t="n">
-        <v>2636.284577945808</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H34" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I34" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J34" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K34" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L34" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M34" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N34" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O34" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P34" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q34" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>4932.38282354235</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>4686.503377120805</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>4408.070376373911</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V34" t="n">
-        <v>4121.114868244342</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W34" t="n">
-        <v>3849.088463830633</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X34" t="n">
-        <v>3603.696709164046</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y34" t="n">
-        <v>3376.277038478154</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="35">
@@ -6938,25 +6940,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>775.0235620688178</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>1850.083528321677</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M35" t="n">
-        <v>3007.131363532228</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N35" t="n">
-        <v>4132.862346968675</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7026,13 +7028,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="N36" t="n">
-        <v>210.9600532992111</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O36" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P36" t="n">
-        <v>1224.761663117513</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>105.4320942910045</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7174,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>306.1208027766299</v>
       </c>
       <c r="M38" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N38" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7254,19 +7256,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="O39" t="n">
-        <v>1116.062450089081</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="P39" t="n">
         <v>1224.761663117513</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3575.44056424806</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>3402.878852731284</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>3237.000859932807</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>3067.242856183545</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>2890.535802145301</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>2724.944527171128</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
-        <v>2585.042352861503</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636178</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>5113.042013538981</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>5077.485521609698</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>4799.052520862803</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>4512.097012733234</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>4240.070608319525</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>3994.678853652938</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y40" t="n">
-        <v>3767.259182967047</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>921.0683263790758</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C41" t="n">
-        <v>482.9258535624991</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D41" t="n">
-        <v>482.9258535624991</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E41" t="n">
-        <v>482.9258535624991</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F41" t="n">
-        <v>55.05842397170682</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G41" t="n">
-        <v>55.05842397170682</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H41" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I41" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>490.3131114246247</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>490.3131114246247</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>490.3131114246247</v>
+        <v>1690.073296584035</v>
       </c>
       <c r="M41" t="n">
-        <v>1171.661108074496</v>
+        <v>2847.121131794586</v>
       </c>
       <c r="N41" t="n">
-        <v>1171.661108074496</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="O41" t="n">
-        <v>1853.009104724368</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="P41" t="n">
-        <v>2534.35710137424</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q41" t="n">
-        <v>2752.921198585341</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R41" t="n">
-        <v>2752.921198585341</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>2752.921198585341</v>
+        <v>4604.853092126521</v>
       </c>
       <c r="T41" t="n">
-        <v>2532.853971458379</v>
+        <v>4384.78586499956</v>
       </c>
       <c r="U41" t="n">
-        <v>2273.631668775396</v>
+        <v>4125.563562316576</v>
       </c>
       <c r="V41" t="n">
-        <v>1911.014718709223</v>
+        <v>3762.946612250403</v>
       </c>
       <c r="W41" t="n">
-        <v>1748.496913500112</v>
+        <v>3358.091157661436</v>
       </c>
       <c r="X41" t="n">
-        <v>1329.354450079422</v>
+        <v>2946.29208781191</v>
       </c>
       <c r="Y41" t="n">
-        <v>921.0683263790758</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>561.2301689629996</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C42" t="n">
-        <v>454.7737077996419</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D42" t="n">
-        <v>359.6834189461952</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>265.5630042731489</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>182.1791658893105</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>96.79407615549434</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J42" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K42" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L42" t="n">
-        <v>736.4064206215786</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M42" t="n">
-        <v>736.4064206215786</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="N42" t="n">
-        <v>1417.75441727145</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="O42" t="n">
-        <v>1417.75441727145</v>
+        <v>279.3749775920493</v>
       </c>
       <c r="P42" t="n">
-        <v>1417.75441727145</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1718.298185450516</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1718.298185450516</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S42" t="n">
-        <v>1654.842747898899</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T42" t="n">
-        <v>1524.6641042295</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1348.327557229469</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V42" t="n">
-        <v>1149.210039291468</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>963.8872850246621</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>809.019849263542</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y42" t="n">
-        <v>682.5340700427628</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>994.2144102739628</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C43" t="n">
-        <v>821.6526987571877</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D43" t="n">
-        <v>655.7747059587105</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E43" t="n">
-        <v>486.0167022094477</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F43" t="n">
-        <v>309.3096481712038</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G43" t="n">
-        <v>143.7183731970315</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H43" t="n">
-        <v>143.7183731970315</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I43" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J43" t="n">
-        <v>141.6381091363967</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>416.3965637075322</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>834.6064454754933</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1294.090312656406</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1736.349115814051</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2156.018365039832</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2503.525259010174</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2671.718033874507</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2650.300212579878</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2491.058843877875</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T43" t="n">
-        <v>2245.17939745633</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U43" t="n">
-        <v>1966.746396709435</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="V43" t="n">
-        <v>1679.790888579866</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W43" t="n">
-        <v>1413.452699678842</v>
+        <v>1837.458304002202</v>
       </c>
       <c r="X43" t="n">
-        <v>1413.452699678842</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y43" t="n">
-        <v>1186.03302899295</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1353.027172602619</v>
+        <v>2188.014873871656</v>
       </c>
       <c r="C44" t="n">
-        <v>1353.027172602619</v>
+        <v>1749.872401055079</v>
       </c>
       <c r="D44" t="n">
-        <v>917.1173877770639</v>
+        <v>1313.962616229524</v>
       </c>
       <c r="E44" t="n">
-        <v>483.3426429353591</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F44" t="n">
-        <v>55.47521334456681</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G44" t="n">
-        <v>55.47521334456681</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H44" t="n">
-        <v>55.47521334456681</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I44" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>55.05842397170682</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>55.05842397170682</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>736.4064206215786</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="M44" t="n">
-        <v>1417.75441727145</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="N44" t="n">
-        <v>2099.102413921322</v>
+        <v>2164.36257382733</v>
       </c>
       <c r="O44" t="n">
-        <v>2752.921198585341</v>
+        <v>3144.542240397637</v>
       </c>
       <c r="P44" t="n">
-        <v>2752.921198585341</v>
+        <v>3972.852115231033</v>
       </c>
       <c r="Q44" t="n">
-        <v>2752.921198585341</v>
+        <v>4519.350901189628</v>
       </c>
       <c r="R44" t="n">
-        <v>2752.921198585341</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="S44" t="n">
-        <v>2752.921198585341</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T44" t="n">
-        <v>2752.921198585341</v>
+        <v>4468.437738815723</v>
       </c>
       <c r="U44" t="n">
-        <v>2752.921198585341</v>
+        <v>4209.215436132739</v>
       </c>
       <c r="V44" t="n">
-        <v>2585.311214312622</v>
+        <v>3846.598486066566</v>
       </c>
       <c r="W44" t="n">
-        <v>2180.455759723655</v>
+        <v>3441.743031477599</v>
       </c>
       <c r="X44" t="n">
-        <v>1761.313296302966</v>
+        <v>3022.60056805691</v>
       </c>
       <c r="Y44" t="n">
-        <v>1353.027172602619</v>
+        <v>2614.314444356563</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1595.853182097825</v>
+        <v>599.9418443101465</v>
       </c>
       <c r="C45" t="n">
-        <v>1489.396720934467</v>
+        <v>493.4853831467888</v>
       </c>
       <c r="D45" t="n">
-        <v>1394.30643208102</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>1300.186017407974</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>1216.802179024136</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>1131.41708929032</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>1089.681437106532</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>1115.74511026699</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J45" t="n">
-        <v>1390.225205285597</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K45" t="n">
-        <v>1390.225205285597</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L45" t="n">
-        <v>1390.225205285597</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M45" t="n">
-        <v>2071.573201935469</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="N45" t="n">
-        <v>2752.921198585341</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="O45" t="n">
-        <v>2752.921198585341</v>
+        <v>1107.571709137155</v>
       </c>
       <c r="P45" t="n">
-        <v>2752.921198585341</v>
+        <v>1216.270922165587</v>
       </c>
       <c r="Q45" t="n">
-        <v>2752.921198585341</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="R45" t="n">
-        <v>2752.921198585341</v>
+        <v>1757.009860797663</v>
       </c>
       <c r="S45" t="n">
-        <v>2689.465761033724</v>
+        <v>1693.554423246046</v>
       </c>
       <c r="T45" t="n">
-        <v>2559.287117364326</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>2382.950570364294</v>
+        <v>1387.039232576616</v>
       </c>
       <c r="V45" t="n">
-        <v>2183.833052426293</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>1998.510298159487</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>1843.642862398367</v>
+        <v>847.7315246106889</v>
       </c>
       <c r="Y45" t="n">
-        <v>1717.157083177588</v>
+        <v>721.2457453899096</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1134.116584583588</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C46" t="n">
-        <v>961.5548730668132</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D46" t="n">
-        <v>795.6768802683359</v>
+        <v>834.3885556154828</v>
       </c>
       <c r="E46" t="n">
-        <v>625.9188765190731</v>
+        <v>664.63055186622</v>
       </c>
       <c r="F46" t="n">
-        <v>449.2118224808293</v>
+        <v>487.9234978279762</v>
       </c>
       <c r="G46" t="n">
-        <v>283.620547506657</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H46" t="n">
-        <v>143.7183731970315</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="I46" t="n">
-        <v>55.05842397170682</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="J46" t="n">
-        <v>141.6381091363967</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>416.3965637075322</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>834.6064454754933</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1294.090312656406</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1736.349115814051</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2156.018365039832</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2503.525259010174</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2671.718033874507</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2650.300212579878</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2491.058843877875</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T46" t="n">
-        <v>2245.17939745633</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U46" t="n">
-        <v>2245.17939745633</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="V46" t="n">
-        <v>1958.223889326761</v>
+        <v>2018.353385968536</v>
       </c>
       <c r="W46" t="n">
-        <v>1686.197484913052</v>
+        <v>1746.326981554827</v>
       </c>
       <c r="X46" t="n">
-        <v>1553.354873988467</v>
+        <v>1500.93522688824</v>
       </c>
       <c r="Y46" t="n">
-        <v>1325.935203302575</v>
+        <v>1273.515556202348</v>
       </c>
     </row>
   </sheetData>
@@ -8067,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>226.6534083847603</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8225,13 +8227,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>625.7716470729683</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>688.2302996463352</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
-        <v>688.2302996463352</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8304,13 +8306,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>327.2525738409312</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>688.2302996463352</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8462,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>625.7716470729683</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>688.2302996463352</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>688.2302996463352</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8544,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>688.2302996463352</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>327.2525738409313</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>226.6534083847603</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8696,16 +8698,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>954.4055465374038</v>
       </c>
       <c r="N11" t="n">
-        <v>625.7716470729683</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>688.2302996463352</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>688.2302996463352</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8781,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>327.2525738409312</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>109.7971848772038</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,16 +8935,16 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>954.4055465374038</v>
       </c>
       <c r="N14" t="n">
-        <v>625.7716470729683</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>688.2302996463352</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>688.2302996463352</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9000,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9015,19 +9017,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>445.6089153503654</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>183.4781570095936</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9252,16 +9254,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>537.6417914809772</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9404,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9474,7 +9476,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9489,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>707.3536805503165</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -9650,10 +9652,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9872,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>288.7351832965059</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9963,10 +9965,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="O27" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>828.0031984638366</v>
@@ -10109,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10185,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10203,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10422,7 +10424,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10434,7 +10436,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>289.0667057209134</v>
       </c>
       <c r="N33" t="n">
         <v>1246.290173293239</v>
@@ -10449,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10595,16 +10597,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>427.9646913560541</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10674,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>109.7971848772035</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O36" t="n">
         <v>1024.042030119497</v>
@@ -10683,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10820,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10835,16 +10837,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,13 +10913,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>109.7971848772036</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11060,28 +11062,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>329.9981998526114</v>
       </c>
       <c r="M41" t="n">
-        <v>688.2302996463352</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>220.7718153647479</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11142,25 +11144,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>187.4796750234299</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>303.5795638172378</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>688.2302996463352</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="M44" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>688.2302996463354</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>660.4230148121396</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,10 +11372,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>277.2526212309167</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11382,19 +11384,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>688.230299646335</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>109.7971848772038</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>411.8858435779263</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>42.6267208739427</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>4.277894049992014</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>208.2197249473428</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>42.41901400957784</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23507,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
@@ -23546,10 +23548,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23558,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>222.2020602814567</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23665,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>111.4236523045822</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>44.28436272291293</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24145,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>29.99283294136447</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>56.36113619101558</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24604,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>122.4480280049975</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>229.4233680290251</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,13 +24846,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -25081,10 +25083,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>124.3589898130749</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>208.2197249473384</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>197.1718905122112</v>
       </c>
     </row>
     <row r="41">
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>239.9142728860571</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>7.269959635451755</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25840,16 +25842,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>102.9863699957344</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>5.631333357557594</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>328.6578670207936</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,13 +25918,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>193.05689613552</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>90.22000922290067</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26068,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>111.4236523045826</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>370434.6398485111</v>
+        <v>531126.8313126905</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>370434.639848511</v>
+        <v>531126.8313126906</v>
       </c>
     </row>
     <row r="7">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>370434.6398485111</v>
+        <v>531126.8313126905</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>370434.6398485111</v>
+        <v>531126.8313126905</v>
       </c>
     </row>
   </sheetData>
@@ -26317,13 +26319,13 @@
         <v>361899.4409260257</v>
       </c>
       <c r="D2" t="n">
-        <v>361899.4409260256</v>
+        <v>361899.4409260257</v>
       </c>
       <c r="E2" t="n">
-        <v>232598.4947886</v>
+        <v>333498.2429172708</v>
       </c>
       <c r="F2" t="n">
-        <v>232598.4947886</v>
+        <v>333498.2429172708</v>
       </c>
       <c r="G2" t="n">
         <v>355628.8692927128</v>
@@ -26344,16 +26346,16 @@
         <v>355628.8692927128</v>
       </c>
       <c r="M2" t="n">
-        <v>355628.8692927127</v>
+        <v>355628.8692927128</v>
       </c>
       <c r="N2" t="n">
         <v>355628.8692927129</v>
       </c>
       <c r="O2" t="n">
-        <v>232598.4947886</v>
+        <v>333498.2429172708</v>
       </c>
       <c r="P2" t="n">
-        <v>232598.4947886001</v>
+        <v>333498.2429172708</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
-        <v>6692.439318494999</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>150665.753571748</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>161718.4283916422</v>
+        <v>29089.80917260779</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
-        <v>5331.402065127076</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>125751.0883356908</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>113504.4062182506</v>
       </c>
       <c r="C4" t="n">
-        <v>109861.7847031916</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="D4" t="n">
-        <v>109861.7847031916</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>527.3804142175969</v>
+        <v>756.1546847085235</v>
       </c>
       <c r="F4" t="n">
-        <v>527.3804142175969</v>
+        <v>756.1546847085236</v>
       </c>
       <c r="G4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826024</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="J4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907825534</v>
       </c>
       <c r="K4" t="n">
+        <v>806.3323907826024</v>
+      </c>
+      <c r="L4" t="n">
         <v>806.3323907826023</v>
       </c>
-      <c r="L4" t="n">
-        <v>806.3323907826021</v>
-      </c>
       <c r="M4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="N4" t="n">
-        <v>806.3323907826025</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>527.3804142175968</v>
+        <v>756.1546847085235</v>
       </c>
       <c r="P4" t="n">
-        <v>527.3804142175969</v>
+        <v>756.1546847085237</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
-        <v>75472.00221849717</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>75472.00221849717</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>41844.40221849718</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="F5" t="n">
-        <v>41844.40221849718</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>41844.40221849718</v>
+        <v>71265.2754823288</v>
       </c>
       <c r="P5" t="n">
-        <v>41844.40221849718</v>
+        <v>71265.2754823288</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-49517.18843802744</v>
+        <v>-49517.18843802746</v>
       </c>
       <c r="C6" t="n">
-        <v>169873.2146858419</v>
+        <v>174182.5101460174</v>
       </c>
       <c r="D6" t="n">
-        <v>176565.6540043369</v>
+        <v>174182.5101460174</v>
       </c>
       <c r="E6" t="n">
-        <v>190226.7121558853</v>
+        <v>110811.0591784855</v>
       </c>
       <c r="F6" t="n">
-        <v>190226.7121558852</v>
+        <v>261476.8127502335</v>
       </c>
       <c r="G6" t="n">
-        <v>115385.8699044955</v>
+        <v>248014.4891235299</v>
       </c>
       <c r="H6" t="n">
         <v>277104.2982961377</v>
@@ -26543,25 +26545,25 @@
         <v>277104.2982961377</v>
       </c>
       <c r="J6" t="n">
-        <v>102452.9495784315</v>
+        <v>102452.9495784316</v>
       </c>
       <c r="K6" t="n">
-        <v>271772.8962310106</v>
+        <v>277104.2982961377</v>
       </c>
       <c r="L6" t="n">
         <v>277104.2982961377</v>
       </c>
       <c r="M6" t="n">
-        <v>277104.2982961376</v>
+        <v>151353.2099604469</v>
       </c>
       <c r="N6" t="n">
         <v>277104.2982961378</v>
       </c>
       <c r="O6" t="n">
-        <v>190226.7121558852</v>
+        <v>261476.8127502335</v>
       </c>
       <c r="P6" t="n">
-        <v>190226.7121558853</v>
+        <v>261476.8127502335</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>688.2302996463352</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>688.2302996463352</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>688.2302996463352</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>688.2302996463352</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>688.2302996463352</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>688.2302996463352</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
-        <v>20.71509303847827</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>504.611034877814</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0302037384101</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>20.71509303847827</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
-        <v>20.71509303847827</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>504.611034877814</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>590.0302037384101</v>
+        <v>106.1342618990743</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>370.1803477317474</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>400</v>
       </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
       <c r="Y2" t="n">
-        <v>370.2548715022043</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27597,10 +27599,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>32.95267764171896</v>
       </c>
       <c r="X4" t="n">
-        <v>201.6494670918344</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>188.1214263578961</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>255.8891781115323</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27786,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>143.6516710866787</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>107.3176718150381</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>11.18956716623558</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27865,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28011,7 +28013,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>143.6516710866787</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>37.3836305457354</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -30235,7 +30237,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.484950034982556e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30402,7 +30404,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -34787,16 +34789,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>226.6534083847603</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34945,13 +34947,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>625.7716470729683</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O5" t="n">
-        <v>688.2302996463352</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
-        <v>688.2302996463352</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35024,13 +35026,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>327.2525738409312</v>
+        <v>347.9676668794094</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>688.2302996463352</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35091,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35100,13 +35102,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
         <v>351.017064616507</v>
@@ -35182,13 +35184,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>625.7716470729683</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="O8" t="n">
-        <v>688.2302996463352</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>688.2302996463352</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35264,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>688.2302996463352</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P9" t="n">
-        <v>327.2525738409313</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="Q9" t="n">
-        <v>546.2009481132077</v>
+        <v>226.6534083847603</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35330,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,13 +35339,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
         <v>351.017064616507</v>
@@ -35416,22 +35418,22 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>954.4055465374038</v>
       </c>
       <c r="N11" t="n">
-        <v>625.7716470729683</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>688.2302996463352</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>688.2302996463352</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35501,16 +35503,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>327.2525738409312</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P12" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>118.3563415094341</v>
+        <v>109.7971848772038</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35653,22 +35655,22 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>954.4055465374038</v>
       </c>
       <c r="N14" t="n">
-        <v>625.7716470729683</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O14" t="n">
-        <v>688.2302996463352</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>688.2302996463352</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35735,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>445.6089153503654</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>183.4781570095936</v>
       </c>
       <c r="Q15" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35972,16 +35974,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="O18" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>537.6417914809772</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36124,7 +36126,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463125</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36209,19 +36211,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>707.3536805503165</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36291,13 +36293,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P22" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
@@ -36367,13 +36369,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P23" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36592,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>288.7351832965059</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36683,10 +36685,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="O27" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>828.0031984638366</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>60.59188538505123</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>583.0591140826364</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36905,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
-        <v>205.9191540463125</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37154,7 +37156,7 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>289.0667057209134</v>
       </c>
       <c r="N33" t="n">
         <v>1246.290173293239</v>
@@ -37169,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
         <v>464.1251183645586</v>
@@ -37239,13 +37241,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>679.5583048465032</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,19 +37317,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>427.9646913560541</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37394,7 +37396,7 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>109.7971848772035</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="O36" t="n">
         <v>1024.042030119497</v>
@@ -37403,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>205.9191540463134</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37631,13 +37633,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>446.2295987639959</v>
       </c>
       <c r="O39" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>109.7971848772036</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908421</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>329.9981998526114</v>
       </c>
       <c r="M41" t="n">
-        <v>688.2302996463352</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>220.7718153647479</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37862,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>187.4796750234299</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q42" t="n">
-        <v>303.5795638172378</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>688.2302996463352</v>
+        <v>809.0782778761422</v>
       </c>
       <c r="M44" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>688.2302996463354</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>660.4230148121396</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>277.2526212309167</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>688.2302996463352</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>688.230299646335</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>109.7971848772038</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_0_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1544329.5586471</v>
+        <v>1543723.471018203</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797154</v>
+        <v>606553.2040797151</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>61.37033924555255</v>
+        <v>359.8487237213458</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -673,13 +673,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -816,25 +816,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>111.5098183264943</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -879,7 +879,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>236.3534627278524</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>141.5695473865226</v>
       </c>
       <c r="E5" t="n">
-        <v>241.3155710353917</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -952,10 +952,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -1107,10 +1107,10 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>131.996999652747</v>
       </c>
       <c r="U7" t="n">
-        <v>131.996999652747</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1132,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>418.7069096796287</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>420.3611198110643</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
         <v>29.43699739328775</v>
@@ -1147,13 +1147,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
@@ -1192,16 +1192,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>13.99728392830462</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1378,7 +1378,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>17.55115381536141</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1387,7 +1387,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1432,7 +1432,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>275.1599094763663</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
@@ -1548,7 +1548,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>83.4954556830794</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>148.8597651552996</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1590,13 +1590,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>379.6175607704808</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -1621,13 +1621,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>354.5522175742595</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>46.2253027104011</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>75.86622810093073</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1858,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -2016,7 +2016,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2538,7 +2538,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>234.6314620976453</v>
       </c>
       <c r="X25" t="n">
         <v>242.9378371199217</v>
@@ -2566,7 +2566,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>397.3838530629687</v>
@@ -2718,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>41.77118486549507</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2730,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2958,7 +2958,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>28.46824604904392</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3192,7 +3192,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>119.9348501475796</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>138.5031525665292</v>
@@ -3243,7 +3243,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3517,7 +3517,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
         <v>286.2388530112159</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3669,7 +3669,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>168.060423711766</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3678,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735226134</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>27.97358346682158</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>145.8387674910519</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3805,10 +3805,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6810791510306</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022982</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>172.6623007436913</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3985,7 +3985,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>100.7791303724942</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -3994,10 +3994,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>357.9752645543677</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>99.68042330889656</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4146,13 +4146,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481291</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4191,7 +4191,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1298.040072665448</v>
+        <v>1197.718769568169</v>
       </c>
       <c r="C2" t="n">
-        <v>859.8975998488716</v>
+        <v>759.5762967515921</v>
       </c>
       <c r="D2" t="n">
-        <v>797.9073581866973</v>
+        <v>396.0927374371013</v>
       </c>
       <c r="E2" t="n">
-        <v>768.1730173853965</v>
+        <v>366.3583966358005</v>
       </c>
       <c r="F2" t="n">
-        <v>744.3459918350084</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G2" t="n">
-        <v>342.9481604582723</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I2" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862856</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L2" t="n">
-        <v>53.40121652862856</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M2" t="n">
-        <v>53.40121652862856</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="P2" t="n">
         <v>1954.407975719776</v>
@@ -4357,25 +4357,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S2" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T2" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U2" t="n">
-        <v>2107.11942280532</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V2" t="n">
-        <v>1744.502472739146</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W2" t="n">
-        <v>1339.64701815018</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X2" t="n">
-        <v>1324.544958769894</v>
+        <v>1628.264059713019</v>
       </c>
       <c r="Y2" t="n">
-        <v>1320.299239109952</v>
+        <v>1624.018340053076</v>
       </c>
     </row>
     <row r="3">
@@ -4424,10 +4424,10 @@
         <v>53.40121652862856</v>
       </c>
       <c r="O3" t="n">
-        <v>714.2412710704069</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P3" t="n">
-        <v>1375.081325612185</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
         <v>1599.468199913098</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>966.5813843420327</v>
+        <v>762.8950539462403</v>
       </c>
       <c r="C4" t="n">
-        <v>794.0196728252577</v>
+        <v>590.3333424294652</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>424.4553496309879</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>254.6973458817252</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>254.6973458817252</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>254.6973458817252</v>
       </c>
       <c r="H4" t="n">
         <v>142.0611657539532</v>
@@ -4512,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434796</v>
+        <v>2510.819457729424</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013251</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U4" t="n">
-        <v>1965.089189266357</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136787</v>
+        <v>1699.551502431415</v>
       </c>
       <c r="W4" t="n">
-        <v>1439.392809694512</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X4" t="n">
-        <v>1194.001055027924</v>
+        <v>1182.133343351119</v>
       </c>
       <c r="Y4" t="n">
-        <v>966.5813843420327</v>
+        <v>954.7136726652275</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1195.45039114996</v>
+        <v>977.6515424412072</v>
       </c>
       <c r="C5" t="n">
-        <v>757.3079183333834</v>
+        <v>943.5494736650346</v>
       </c>
       <c r="D5" t="n">
-        <v>725.438537548232</v>
+        <v>800.5499308503653</v>
       </c>
       <c r="E5" t="n">
-        <v>481.6854354922808</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F5" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148855</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H5" t="n">
         <v>53.81800590148855</v>
@@ -4579,7 +4579,7 @@
         <v>53.40121652862856</v>
       </c>
       <c r="N5" t="n">
-        <v>714.2412710704069</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O5" t="n">
         <v>1293.567921177998</v>
@@ -4600,19 +4600,19 @@
         <v>2449.993599304466</v>
       </c>
       <c r="U5" t="n">
-        <v>2449.993599304466</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V5" t="n">
-        <v>2449.993599304466</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W5" t="n">
-        <v>2045.1381447155</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X5" t="n">
-        <v>1625.99568129481</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y5" t="n">
-        <v>1621.749961634868</v>
+        <v>999.910708885711</v>
       </c>
     </row>
     <row r="6">
@@ -4643,25 +4643,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>397.8892067392439</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
         <v>1058.729261281022</v>
@@ -4755,7 +4755,7 @@
         <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2489.401636434797</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="U7" t="n">
         <v>2356.071333755254</v>
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1660.657022731622</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.514549915045</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>797.9073581866973</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>768.1730173853965</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>744.3459918350084</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488303</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>2107.11942280532</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>2107.11942280532</v>
+        <v>1828.15434655531</v>
       </c>
       <c r="W8" t="n">
-        <v>1702.263968216353</v>
+        <v>1423.298891966343</v>
       </c>
       <c r="X8" t="n">
-        <v>1687.161908836068</v>
+        <v>1004.156428545654</v>
       </c>
       <c r="Y8" t="n">
-        <v>1682.916189176125</v>
+        <v>595.8703048453069</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1375.081325612185</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4986,10 +4986,10 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2634.504334502149</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
         <v>2634.504334502149</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2104.363000055493</v>
+        <v>2231.279152143079</v>
       </c>
       <c r="C11" t="n">
-        <v>1666.220527238916</v>
+        <v>1793.136679326502</v>
       </c>
       <c r="D11" t="n">
-        <v>1230.31074241336</v>
+        <v>1357.226894500947</v>
       </c>
       <c r="E11" t="n">
-        <v>1212.582304216026</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F11" t="n">
-        <v>784.7148746252335</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G11" t="n">
-        <v>383.3170432484974</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="H11" t="n">
         <v>94.18688869171368</v>
@@ -5080,13 +5080,13 @@
         <v>3762.946612250403</v>
       </c>
       <c r="W11" t="n">
-        <v>3358.091157661436</v>
+        <v>3485.007309749023</v>
       </c>
       <c r="X11" t="n">
-        <v>2938.948694240747</v>
+        <v>3065.864846328333</v>
       </c>
       <c r="Y11" t="n">
-        <v>2530.6625705404</v>
+        <v>2657.578722627987</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>93.77009931885368</v>
       </c>
       <c r="I12" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L12" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M12" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N12" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O12" t="n">
-        <v>1107.571709137155</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P12" t="n">
-        <v>1107.571709137155</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1648.310647769231</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
         <v>1757.009860797663</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1168.507154829733</v>
+        <v>1084.16831070541</v>
       </c>
       <c r="C13" t="n">
-        <v>995.945443312958</v>
+        <v>911.6065991886354</v>
       </c>
       <c r="D13" t="n">
-        <v>830.0674505144807</v>
+        <v>745.7286063901581</v>
       </c>
       <c r="E13" t="n">
-        <v>660.3094467652179</v>
+        <v>575.9706026408953</v>
       </c>
       <c r="F13" t="n">
-        <v>483.6023927269741</v>
+        <v>399.2635486026515</v>
       </c>
       <c r="G13" t="n">
-        <v>318.0111177528018</v>
+        <v>233.6722736284792</v>
       </c>
       <c r="H13" t="n">
-        <v>178.1089434431763</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I13" t="n">
         <v>93.77009931885368</v>
@@ -5223,28 +5223,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2689.011887927025</v>
+        <v>2560.066310074886</v>
       </c>
       <c r="T13" t="n">
-        <v>2443.132441505481</v>
+        <v>2314.186863653341</v>
       </c>
       <c r="U13" t="n">
-        <v>2164.699440758586</v>
+        <v>2035.753862906447</v>
       </c>
       <c r="V13" t="n">
-        <v>1877.743932629016</v>
+        <v>1748.798354776877</v>
       </c>
       <c r="W13" t="n">
-        <v>1605.717528215308</v>
+        <v>1748.798354776877</v>
       </c>
       <c r="X13" t="n">
-        <v>1360.32577354872</v>
+        <v>1503.406600110289</v>
       </c>
       <c r="Y13" t="n">
-        <v>1360.32577354872</v>
+        <v>1275.986929424398</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2230.862362770219</v>
+        <v>2188.014873871656</v>
       </c>
       <c r="C14" t="n">
-        <v>1792.719889953642</v>
+        <v>1749.872401055079</v>
       </c>
       <c r="D14" t="n">
-        <v>1356.810105128087</v>
+        <v>1313.962616229524</v>
       </c>
       <c r="E14" t="n">
-        <v>923.035360286382</v>
+        <v>880.1878713878186</v>
       </c>
       <c r="F14" t="n">
-        <v>495.1679306955898</v>
+        <v>452.3204417970264</v>
       </c>
       <c r="G14" t="n">
-        <v>93.77009931885368</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="H14" t="n">
-        <v>93.77009931885368</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I14" t="n">
         <v>93.77009931885368</v>
@@ -5287,19 +5287,19 @@
         <v>93.77009931885368</v>
       </c>
       <c r="M14" t="n">
-        <v>1038.631590390883</v>
+        <v>1250.817934529405</v>
       </c>
       <c r="N14" t="n">
-        <v>2164.36257382733</v>
+        <v>2376.548917965851</v>
       </c>
       <c r="O14" t="n">
-        <v>3144.542240397637</v>
+        <v>3356.728584536158</v>
       </c>
       <c r="P14" t="n">
-        <v>3972.852115231033</v>
+        <v>4185.038459369553</v>
       </c>
       <c r="Q14" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R14" t="n">
         <v>4688.504965942684</v>
@@ -5372,10 +5372,10 @@
         <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1458.193707263825</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
-        <v>1639.837082703323</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
         <v>1639.837082703323</v>
@@ -5460,16 +5460,16 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2642.319662967024</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="T16" t="n">
-        <v>2396.440216545479</v>
+        <v>2464.550262800109</v>
       </c>
       <c r="U16" t="n">
-        <v>2396.440216545479</v>
+        <v>2186.117262053214</v>
       </c>
       <c r="V16" t="n">
         <v>2109.48470841591</v>
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5521,46 +5521,46 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L17" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5591,25 +5591,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
         <v>102.2608402707796</v>
@@ -5697,28 +5697,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5740,13 +5740,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
@@ -5758,25 +5758,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
         <v>5029.390139722817</v>
@@ -5791,13 +5791,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>128.3245134312372</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K21" t="n">
-        <v>128.3245134312372</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L21" t="n">
-        <v>128.3245134312372</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M21" t="n">
-        <v>128.3245134312372</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N21" t="n">
-        <v>128.3245134312372</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O21" t="n">
-        <v>828.6046571760505</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5992,25 +5992,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N23" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C26" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D26" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E26" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
-        <v>2588.899621423628</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S26" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T26" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U26" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V26" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1057.634124109936</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C28" t="n">
-        <v>885.0724125931612</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T28" t="n">
-        <v>2559.679081471576</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U28" t="n">
-        <v>2281.246080724681</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V28" t="n">
-        <v>1994.290572595111</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W28" t="n">
-        <v>1722.264168181403</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X28" t="n">
-        <v>1476.872413514815</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y28" t="n">
-        <v>1249.452742828923</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="29">
@@ -6466,13 +6466,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L29" t="n">
-        <v>2011.671098481817</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M29" t="n">
-        <v>2011.671098481817</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
         <v>444.5591692831957</v>
@@ -6648,25 +6648,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6700,13 +6700,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L32" t="n">
-        <v>1463.16863798718</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M32" t="n">
         <v>1463.16863798718</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3475.865925220631</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>3475.865925220631</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>3475.865925220631</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>3762.041963884335</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4995.869235444641</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4995.869235444641</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4995.869235444641</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G34" t="n">
         <v>330.8229638057298</v>
@@ -6891,19 +6891,19 @@
         <v>2473.041003752034</v>
       </c>
       <c r="U34" t="n">
-        <v>2404.930957497405</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="35">
@@ -6949,16 +6949,16 @@
         <v>2334.36864173419</v>
       </c>
       <c r="N35" t="n">
-        <v>2758.053686176683</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O35" t="n">
-        <v>3738.23335274699</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P35" t="n">
-        <v>4566.543227580386</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N36" t="n">
-        <v>751.6989919312866</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2683.3639582443</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2404.930957497405</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
         <v>391.8077842004234</v>
@@ -7174,28 +7174,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>306.1208027766299</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>306.1208027766299</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>306.1208027766299</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M38" t="n">
-        <v>1463.168637987181</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4986.778077699538</v>
       </c>
       <c r="R38" t="n">
         <v>5113.042013538981</v>
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>462.7983383258839</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>286.0912842876402</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>120.5000093134678</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7356,28 +7356,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>1181.319000882661</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7411,49 +7411,49 @@
         <v>93.77009931885368</v>
       </c>
       <c r="J41" t="n">
-        <v>529.0247867717716</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K41" t="n">
-        <v>1363.37507872995</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L41" t="n">
-        <v>1690.073296584035</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M41" t="n">
-        <v>2847.121131794586</v>
+        <v>1250.817934529405</v>
       </c>
       <c r="N41" t="n">
-        <v>3972.852115231033</v>
+        <v>2376.548917965851</v>
       </c>
       <c r="O41" t="n">
-        <v>3972.852115231033</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P41" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R41" t="n">
         <v>4688.504965942684</v>
       </c>
       <c r="S41" t="n">
-        <v>4604.853092126521</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="T41" t="n">
-        <v>4384.78586499956</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="U41" t="n">
-        <v>4125.563562316576</v>
+        <v>4541.193079588086</v>
       </c>
       <c r="V41" t="n">
-        <v>3762.946612250403</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W41" t="n">
-        <v>3358.091157661436</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X41" t="n">
-        <v>2946.29208781191</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y41" t="n">
         <v>2946.29208781191</v>
@@ -7487,25 +7487,25 @@
         <v>93.77009931885368</v>
       </c>
       <c r="I42" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>279.3749775920493</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
         <v>1099.098144071247</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1172.828259930735</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C43" t="n">
-        <v>1000.26654841396</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D43" t="n">
-        <v>834.3885556154828</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E43" t="n">
-        <v>664.63055186622</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="F43" t="n">
-        <v>487.9234978279762</v>
+        <v>96.94135333907892</v>
       </c>
       <c r="G43" t="n">
-        <v>322.3322228538038</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="H43" t="n">
-        <v>182.4300485441784</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="I43" t="n">
         <v>93.77009931885368</v>
@@ -7602,19 +7602,19 @@
         <v>2283.891072803477</v>
       </c>
       <c r="U43" t="n">
-        <v>2109.48470841591</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V43" t="n">
-        <v>2109.48470841591</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W43" t="n">
-        <v>1837.458304002202</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X43" t="n">
-        <v>1592.066549335614</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y43" t="n">
-        <v>1364.646878649722</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="44">
@@ -7624,52 +7624,52 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2188.014873871656</v>
+        <v>2231.279152143079</v>
       </c>
       <c r="C44" t="n">
-        <v>1749.872401055079</v>
+        <v>1793.136679326502</v>
       </c>
       <c r="D44" t="n">
-        <v>1313.962616229524</v>
+        <v>1357.226894500947</v>
       </c>
       <c r="E44" t="n">
-        <v>1212.165514843166</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F44" t="n">
-        <v>784.2980852523735</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G44" t="n">
-        <v>382.9002538756374</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="H44" t="n">
-        <v>93.77009931885368</v>
+        <v>94.18688869171368</v>
       </c>
       <c r="I44" t="n">
         <v>93.77009931885368</v>
       </c>
       <c r="J44" t="n">
-        <v>529.0247867717716</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="K44" t="n">
-        <v>1363.37507872995</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="L44" t="n">
-        <v>2164.36257382733</v>
+        <v>93.77009931885368</v>
       </c>
       <c r="M44" t="n">
-        <v>2164.36257382733</v>
+        <v>1250.817934529405</v>
       </c>
       <c r="N44" t="n">
-        <v>2164.36257382733</v>
+        <v>2376.548917965851</v>
       </c>
       <c r="O44" t="n">
-        <v>3144.542240397637</v>
+        <v>3313.696305150693</v>
       </c>
       <c r="P44" t="n">
-        <v>3972.852115231033</v>
+        <v>4142.00617998409</v>
       </c>
       <c r="Q44" t="n">
-        <v>4519.350901189628</v>
+        <v>4688.504965942684</v>
       </c>
       <c r="R44" t="n">
         <v>4688.504965942684</v>
@@ -7687,13 +7687,13 @@
         <v>3846.598486066566</v>
       </c>
       <c r="W44" t="n">
-        <v>3441.743031477599</v>
+        <v>3485.007309749023</v>
       </c>
       <c r="X44" t="n">
-        <v>3022.60056805691</v>
+        <v>3065.864846328333</v>
       </c>
       <c r="Y44" t="n">
-        <v>2614.314444356563</v>
+        <v>2657.578722627987</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.77009931885368</v>
       </c>
       <c r="I45" t="n">
-        <v>93.77009931885368</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>93.77009931885368</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>93.77009931885368</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>1107.571709137155</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>1216.270922165587</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>1757.009860797663</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
         <v>1757.009860797663</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1172.828259930735</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C46" t="n">
-        <v>1000.26654841396</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D46" t="n">
-        <v>834.3885556154828</v>
+        <v>443.4064111265855</v>
       </c>
       <c r="E46" t="n">
-        <v>664.63055186622</v>
+        <v>273.6484073773227</v>
       </c>
       <c r="F46" t="n">
-        <v>487.9234978279762</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="G46" t="n">
-        <v>322.3322228538038</v>
+        <v>182.4300485441784</v>
       </c>
       <c r="H46" t="n">
         <v>182.4300485441784</v>
@@ -7830,28 +7830,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2551.18834051965</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T46" t="n">
-        <v>2305.308894098105</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U46" t="n">
-        <v>2305.308894098105</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V46" t="n">
-        <v>2018.353385968536</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W46" t="n">
-        <v>1746.326981554827</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X46" t="n">
-        <v>1500.93522688824</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y46" t="n">
-        <v>1273.515556202348</v>
+        <v>973.664734160825</v>
       </c>
     </row>
   </sheetData>
@@ -7978,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>347.9676668794094</v>
+      </c>
+      <c r="P3" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="P3" t="n">
-        <v>667.5152066078568</v>
-      </c>
       <c r="Q3" t="n">
-        <v>226.6534083847603</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8227,10 +8227,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="O5" t="n">
-        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8306,13 +8306,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>226.6534083847603</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,7 +8783,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>109.7971848772038</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>954.4055465374038</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
         <v>1137.102003471159</v>
@@ -8947,10 +8947,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>508.5520268415457</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9020,13 +9020,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>183.4781570095936</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9169,7 +9169,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,13 +9254,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9406,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9479,7 +9479,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9494,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>707.3536805503165</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9640,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9652,16 +9652,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9725,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,19 +9874,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,19 +9965,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,16 +10114,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>583.0591140826364</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,16 +10348,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>92.22506899525706</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -10427,19 +10427,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>289.0667057209134</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10597,16 +10597,16 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>427.9646913560541</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10676,19 +10676,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -10840,13 +10840,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>127.539329130751</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>329.9981998526114</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
@@ -11074,16 +11074,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>946.6135224089312</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,13 +11135,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11153,10 +11153,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11296,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>809.0782778761422</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>946.6135224089312</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>109.7971848772038</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>411.8858435779263</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>125.6469905667107</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>4.277894049992014</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>8.789189859683717</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>42.41901400957784</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>42.8316354887092</v>
       </c>
       <c r="H14" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>111.4236523045822</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>208.2197249473431</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24414,10 +24414,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>34.6746782719261</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>122.4480280049975</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>44.28436272291295</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>120.4463752142679</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>197.1718905122112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>110.7913121651014</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>7.269959635451755</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>102.9863699957344</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25873,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>328.6578670207936</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>42.83163548870931</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>90.22000922290067</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>84.63380825304843</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>531126.8313126905</v>
+        <v>531126.8313126903</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>531126.8313126906</v>
+        <v>531126.8313126905</v>
       </c>
     </row>
     <row r="7">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>566371.9029476538</v>
+        <v>566371.9029476537</v>
       </c>
     </row>
     <row r="15">
@@ -26322,10 +26322,10 @@
         <v>361899.4409260257</v>
       </c>
       <c r="E2" t="n">
-        <v>333498.2429172708</v>
+        <v>333498.2429172707</v>
       </c>
       <c r="F2" t="n">
-        <v>333498.2429172708</v>
+        <v>333498.2429172707</v>
       </c>
       <c r="G2" t="n">
         <v>355628.8692927128</v>
@@ -26349,13 +26349,13 @@
         <v>355628.8692927128</v>
       </c>
       <c r="N2" t="n">
-        <v>355628.8692927129</v>
+        <v>355628.8692927128</v>
       </c>
       <c r="O2" t="n">
-        <v>333498.2429172708</v>
+        <v>333498.2429172707</v>
       </c>
       <c r="P2" t="n">
-        <v>333498.2429172708</v>
+        <v>333498.2429172709</v>
       </c>
     </row>
     <row r="3">
@@ -26429,22 +26429,22 @@
         <v>756.1546847085235</v>
       </c>
       <c r="F4" t="n">
-        <v>756.1546847085236</v>
+        <v>756.1546847085237</v>
       </c>
       <c r="G4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="H4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="I4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="J4" t="n">
-        <v>806.3323907825534</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="K4" t="n">
-        <v>806.3323907826024</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
         <v>806.3323907826023</v>
@@ -26456,10 +26456,10 @@
         <v>806.3323907826023</v>
       </c>
       <c r="O4" t="n">
-        <v>756.1546847085235</v>
+        <v>756.1546847085236</v>
       </c>
       <c r="P4" t="n">
-        <v>756.1546847085237</v>
+        <v>756.1546847085236</v>
       </c>
     </row>
     <row r="5">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-49517.18843802746</v>
+        <v>-49517.18843802744</v>
       </c>
       <c r="C6" t="n">
         <v>174182.5101460174</v>
@@ -26530,40 +26530,40 @@
         <v>174182.5101460174</v>
       </c>
       <c r="E6" t="n">
-        <v>110811.0591784855</v>
+        <v>110705.8695562308</v>
       </c>
       <c r="F6" t="n">
-        <v>261476.8127502335</v>
+        <v>261371.6231279788</v>
       </c>
       <c r="G6" t="n">
-        <v>248014.4891235299</v>
+        <v>247991.2647841473</v>
       </c>
       <c r="H6" t="n">
-        <v>277104.2982961377</v>
+        <v>277081.073956755</v>
       </c>
       <c r="I6" t="n">
-        <v>277104.2982961377</v>
+        <v>277081.073956755</v>
       </c>
       <c r="J6" t="n">
-        <v>102452.9495784316</v>
+        <v>102429.7252390489</v>
       </c>
       <c r="K6" t="n">
-        <v>277104.2982961377</v>
+        <v>277081.073956755</v>
       </c>
       <c r="L6" t="n">
-        <v>277104.2982961377</v>
+        <v>277081.073956755</v>
       </c>
       <c r="M6" t="n">
-        <v>151353.2099604469</v>
+        <v>151329.9856210642</v>
       </c>
       <c r="N6" t="n">
-        <v>277104.2982961378</v>
+        <v>277081.073956755</v>
       </c>
       <c r="O6" t="n">
-        <v>261476.8127502335</v>
+        <v>261371.6231279788</v>
       </c>
       <c r="P6" t="n">
-        <v>261476.8127502335</v>
+        <v>261371.6231279789</v>
       </c>
     </row>
   </sheetData>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>370.1803477317474</v>
+        <v>71.70196325595407</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27536,25 +27536,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>26.99333424003497</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27599,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>32.95267764171896</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>289.9811395907773</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
-      </c>
-      <c r="E5" t="n">
-        <v>188.1214263578961</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27827,10 +27827,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>111.4236523045822</v>
       </c>
       <c r="U7" t="n">
-        <v>143.6516710866787</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,13 +27852,13 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>3.32966510043002</v>
+      </c>
+      <c r="C8" t="n">
         <v>400</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
-        <v>11.18956716623558</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
         <v>400</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>143.6516710866787</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -30222,7 +30222,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-5.621818412198717e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30389,7 +30389,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -34698,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="N2" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34792,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
+        <v>347.9676668794094</v>
+      </c>
+      <c r="P3" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="P3" t="n">
-        <v>667.5152066078568</v>
-      </c>
       <c r="Q3" t="n">
-        <v>226.6534083847603</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34947,10 +34947,10 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
+        <v>585.1784344521124</v>
+      </c>
+      <c r="O5" t="n">
         <v>667.515206607857</v>
-      </c>
-      <c r="O5" t="n">
-        <v>585.1784344521124</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35011,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35026,13 +35026,13 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35266,13 +35266,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="P9" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>226.6534083847603</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35503,7 +35503,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>109.7971848772038</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35655,10 +35655,10 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>954.4055465374038</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35667,10 +35667,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>508.5520268415457</v>
       </c>
       <c r="R14" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35740,13 +35740,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>183.4781570095936</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -35889,7 +35889,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,13 +35974,13 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36126,7 +36126,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36199,7 +36199,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36214,13 +36214,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>707.3536805503165</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36360,28 +36360,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36445,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
-        <v>143.4079146352456</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,19 +36685,19 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,16 +36834,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>583.0591140826364</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,16 +37068,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>92.22506899525706</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
         <v>1137.102003471159</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>289.0667057209134</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37317,19 +37317,19 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>427.9646913560541</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37396,19 +37396,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,13 +37542,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
@@ -37560,13 +37560,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>127.539329130751</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37633,7 +37633,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>446.2295987639959</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850284</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>329.9981998526114</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>946.6135224089312</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37873,10 +37873,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234299</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -38016,22 +38016,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850284</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>809.0782778761422</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>946.6135224089312</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38110,16 +38110,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>109.7971848772038</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
